--- a/report/2019-09-08.xlsx
+++ b/report/2019-09-08.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="34">
   <si>
     <t>编号</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>不通过(返回次数0)</t>
+  </si>
+  <si>
+    <t>不通过(返回次数0,10,10)</t>
+  </si>
+  <si>
+    <t>通过(R=9 S=9)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>通过(返回次数9,9,9)</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -176,15 +188,42 @@
     <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -996,6 +1035,1798 @@
         <v>20</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:A5"/>
@@ -1004,6 +2835,20 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
